--- a/classfiers/chatty/multinomialNB/nearmiss/chatty-multinomialNB-nearmiss-results.xlsx
+++ b/classfiers/chatty/multinomialNB/nearmiss/chatty-multinomialNB-nearmiss-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7083333333333333</v>
+        <v>0.8</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7083333333333333</v>
+        <v>0.7916666666666665</v>
       </c>
       <c r="E2" t="n">
-        <v>0.7083333333333334</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="C3" t="n">
-        <v>0.875</v>
+        <v>0.9</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.898989898989899</v>
       </c>
       <c r="E3" t="n">
-        <v>0.875</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8333333333333333</v>
+        <v>0.6</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8285714285714285</v>
+        <v>0.5238095238095238</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="5">
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>0.625</v>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="D5" t="n">
-        <v>1</v>
+        <v>0.6703296703296704</v>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="6">
@@ -546,13 +546,13 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8333333333333333</v>
+        <v>0.8</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8285714285714285</v>
+        <v>0.7916666666666665</v>
       </c>
       <c r="E6" t="n">
-        <v>0.8333333333333333</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.8833333333333332</v>
+        <v>0.8916666666666668</v>
       </c>
       <c r="C7" t="n">
-        <v>0.85</v>
+        <v>0.76</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8445238095238095</v>
+        <v>0.7352924852924854</v>
       </c>
       <c r="E7" t="n">
-        <v>0.85</v>
+        <v>0.76</v>
       </c>
     </row>
   </sheetData>
